--- a/biology/Médecine/Myopathie_distale_de_Udd/Myopathie_distale_de_Udd.xlsx
+++ b/biology/Médecine/Myopathie_distale_de_Udd/Myopathie_distale_de_Udd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La myopathie distale de Udd est une maladie génétique se manifestant vers la quarantaine par une incapacité de la flexion du pied sur la jambe et par l'impossibilité de marcher sur les talons. Cette maladie atteint surtout la population finlandaise.
 </t>
@@ -511,7 +523,9 @@
           <t>Autre nom</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dystrophie musculaire tibiale.
 </t>
@@ -542,9 +556,11 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est due à une mutation du gène TTN situé sur le locus q31-33 du chromosome 2 humain codant la protéine titine[1]. Les muscles tibiaux antérieurs et l'extenseur de l'orteil sont atteints.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est due à une mutation du gène TTN situé sur le locus q31-33 du chromosome 2 humain codant la protéine titine. Les muscles tibiaux antérieurs et l'extenseur de l'orteil sont atteints.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Incidence et prévalence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La prévalence est de 7 pour 100 000 individus en Finlande ; 
 92 % des personnes atteintes vivent en Finlande.
@@ -605,7 +623,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie reste localisée aux muscles tibiales antérieures, les difficultés de la locomotion apparaissent tardivement mais n'empêchent jamais l'autonomie.
 </t>
@@ -638,16 +658,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Électromyographie
-Anomalie électromyographique du muscle tibial antérieur mais préservation du muscle extenseur.
-IRM
-L'imagerie en résonance magnétique montre la dégénérescence graisseuse du muscle tibiale antérieure mais il existe aussi des anomalies sur les autres muscles non affectés.
-Biologie
-Les CPK sont normales.
-Biopsie musculaire
-Lésion non spécifique de dégénérescence graisseuse.
-Génétique
-Toutes les familles finlandaises montrent ont une unique 11-bp délétion/insertion qui change quatre acides aminés dans l'exon Mex 6. Cette mutation est retrouvée dans tous les cas.
+          <t>Électromyographie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anomalie électromyographique du muscle tibial antérieur mais préservation du muscle extenseur.
 </t>
         </is>
       </c>
@@ -673,10 +690,160 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>IRM</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imagerie en résonance magnétique montre la dégénérescence graisseuse du muscle tibiale antérieure mais il existe aussi des anomalies sur les autres muscles non affectés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Myopathie_distale_de_Udd</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myopathie_distale_de_Udd</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les CPK sont normales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Myopathie_distale_de_Udd</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myopathie_distale_de_Udd</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biopsie musculaire</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lésion non spécifique de dégénérescence graisseuse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Myopathie_distale_de_Udd</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myopathie_distale_de_Udd</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Génétique</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toutes les familles finlandaises montrent ont une unique 11-bp délétion/insertion qui change quatre acides aminés dans l'exon Mex 6. Cette mutation est retrouvée dans tous les cas.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Myopathie_distale_de_Udd</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myopathie_distale_de_Udd</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Mode de transmission</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Autosomale dominante.
 </t>
